--- a/biology/Zoologie/Coeloplana/Coeloplana.xlsx
+++ b/biology/Zoologie/Coeloplana/Coeloplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coeloplana est un genre de cténophores benthiques de la famille des Coeloplanidae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Coeloplana sont des cténophores benthiques pourvus de tentacules pêcheurs. Pour mieux se confondre avec leur support, ils sont souvent de forme très aplatie (ce qui les fait davantage ressembler à des limaces de mer ou à des vers plats)[3]. 
-La plupart vivent en association avec d'autres animaux, notamment des échinodermes[3], mai certains comme Coeloplana meteoris sont libres et vivent sans hôte. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Coeloplana sont des cténophores benthiques pourvus de tentacules pêcheurs. Pour mieux se confondre avec leur support, ils sont souvent de forme très aplatie (ce qui les fait davantage ressembler à des limaces de mer ou à des vers plats). 
+La plupart vivent en association avec d'autres animaux, notamment des échinodermes, mai certains comme Coeloplana meteoris sont libres et vivent sans hôte. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 septembre 2019)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 septembre 2019) :
 sous-genre Coeloplana (Benthoplana) Fricke &amp; Plante, 1971
 Coeloplana (Benthoplana) meteoris Thiel, 1968
 Coeloplana agniae Dawydoff, 1930
